--- a/nr-add-collab/ig/StructureDefinition-fr-core-organization-description.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-organization-description.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T07:22:57+00:00</t>
+    <t>2025-11-14T07:24:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-organization-description.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-organization-description.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T07:24:46+00:00</t>
+    <t>2025-11-14T07:30:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-organization-description.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-organization-description.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T07:30:49+00:00</t>
+    <t>2025-11-14T08:50:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-organization-description.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-organization-description.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T08:50:36+00:00</t>
+    <t>2025-11-18T17:20:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -115,7 +115,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-organization-description.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-organization-description.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T17:20:39+00:00</t>
+    <t>2025-12-05T08:27:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-organization-description.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-organization-description.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T08:27:25+00:00</t>
+    <t>2025-12-05T08:30:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-organization-description.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-organization-description.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T08:30:09+00:00</t>
+    <t>2025-12-05T08:32:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-organization-description.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-organization-description.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T08:32:19+00:00</t>
+    <t>2025-12-05T09:13:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-organization-description.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-organization-description.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T09:13:38+00:00</t>
+    <t>2025-12-05T09:27:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
